--- a/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,65</t>
+          <t>19,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>14,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>28,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>71,11%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 25,28</t>
+          <t>-21,34; 16,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 41,01</t>
+          <t>-2,36; 39,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 27,62</t>
+          <t>-8,07; 35,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 44,65</t>
+          <t>3,14; 51,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 87,17</t>
+          <t>-25,65; 26,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 50,02</t>
+          <t>-3,04; 89,34</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,97; 88,08</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 218,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>-3,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-10,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 32,39</t>
+          <t>-10,04; 43,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 16,55</t>
+          <t>-16,59; 10,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 18,24</t>
+          <t>-25,33; 9,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 58,59</t>
+          <t>-21,87; 15,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 22,38</t>
+          <t>-11,96; 105,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 27,27</t>
+          <t>-17,88; 12,58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-28,46; 12,39</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-24,53; 21,24</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,11%</t>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,87%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 17,37</t>
+          <t>4,95; 31,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,11</t>
+          <t>-8,56; 15,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 9,3</t>
+          <t>-5,62; 19,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 23,27</t>
+          <t>-6,18; 21,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 10,69</t>
+          <t>6,0; 50,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 11,42</t>
+          <t>-9,72; 21,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 26,27</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-7,43; 34,59</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>21,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>8,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>3,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 17,13</t>
+          <t>11,02; 33,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 12,22</t>
+          <t>-4,1; 12,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 18,87</t>
+          <t>-0,58; 18,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 24,04</t>
+          <t>-0,4; 25,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 14,76</t>
+          <t>14,3; 54,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 24,97</t>
+          <t>-4,37; 14,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 23,8</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 40,88</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>20,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>20,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,14</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>25,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,86%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,57%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 26,25</t>
+          <t>8,05; 36,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 29,8</t>
+          <t>6,53; 40,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 24,22</t>
+          <t>4,59; 33,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 37,86</t>
+          <t>11,57; 41,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 45,47</t>
+          <t>9,8; 60,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,27; 34,51</t>
+          <t>8,84; 75,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,48; 55,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 77,11</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,68</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,0%</t>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,48%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 5,81</t>
+          <t>-9,03; 12,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 17,49</t>
+          <t>-7,2; 18,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 5,35</t>
+          <t>-14,08; 8,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 6,3</t>
+          <t>-17,85; 12,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 21,99</t>
+          <t>-9,32; 14,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 5,83</t>
+          <t>-7,48; 24,31</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-14,99; 9,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,28; 15,92</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>12,29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 12,98</t>
+          <t>5,75; 20,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,74</t>
+          <t>1,72; 14,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,35</t>
+          <t>-0,3; 12,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 17,16</t>
+          <t>3,5; 17,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,81; 18,95</t>
+          <t>7,18; 30,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 14,66</t>
+          <t>2,09; 19,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 16,14</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 26,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P31_3_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,85</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>19,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,15</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>28,22</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-5,03%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>24,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>71,11%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.393435216906438</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>19.13348670710991</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>16.39490060384562</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>28.15670084873735</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.05615523884347712</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2956356346395896</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2947973218341253</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6987140002603061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-21,34; 16,83</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,36; 39,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 35,61</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 51,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; 26,57</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 89,34</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-10,97; 88,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 218,41</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-21.77710537900569</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.361050458317496</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-6.51950601606464</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.736689273771198</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2558833424701729</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.01642077137647526</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.08518663959657788</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.04306497573977074</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.12435956817795</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>39.34190390560725</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>38.40224788257706</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>50.33835279892362</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.2506174856266242</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.8581243354011054</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.9701953431191372</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.155969638541965</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,36</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,99</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,54</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-3,4</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>14,56%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-3,3%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,14%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-4,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,04; 43,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,59; 10,69</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-25,33; 9,14</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,87; 15,18</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,96; 105,47</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; 12,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-28,46; 12,39</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-24,53; 21,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.171383184188697</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.468147623009564</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.250842486023844</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.836253339132433</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1127036512094134</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.02723661683017266</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.07488932605745413</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.0349046799792764</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,69</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,28</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,87%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-11.41047827877244</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-15.88033885864243</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-22.5875396704007</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-21.45042303395916</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1339040205552561</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1664413470400234</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.2546962206969737</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2433752432135469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,95; 31,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,56; 15,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 19,23</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 21,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>6,0; 50,8</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-9,72; 21,26</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 26,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 34,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>36.67604962189166</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.71760109203459</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>11.56802799396483</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.10080610144914</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.7334310970869135</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1262458382553349</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.1580135322784778</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.2308731283920714</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +827,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>21,18</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,29</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>13,22</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>29,72%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18,48%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.18556373708056</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.572957328956182</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.271052500223005</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.692869752528498</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2365430668386035</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.03044267893534639</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.05130871462755426</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1176840885603889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>11,02; 33,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,1; 12,05</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 18,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 25,76</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>14,3; 54,35</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 14,43</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-0,64; 23,8</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 40,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>4.232644376160545</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.295583656584089</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.672919990706012</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-6.166403915340496</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.04961712665099358</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1041099132810923</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.06383790453254017</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.07111685447833783</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>33.89059288315809</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.46657923610297</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>17.42184154197658</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>22.66178539658482</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.5679277864645863</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1898212511240035</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2383722940250831</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.3548061709156921</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>20,13</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>20,48</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,96</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>25,85</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>26,46%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>28,82%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>22,48%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>38,57%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>8,05; 36,86</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 40,22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 33,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>11,57; 41,46</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>9,8; 60,75</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 75,67</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 55,33</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>15,16; 77,11</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>22.52591314589858</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.164993524529802</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.670564803962209</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>12.62972630106278</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.3212254631581715</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03510588098366284</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0895834108342639</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1758673926368644</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,9</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-3,07</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-3,48%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>12.3896205448298</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.724457305108808</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.229796884310287</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9357614145710912</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1571978875817217</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.04010047508492652</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.01373088497234969</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.008527319667776012</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-9,03; 12,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 18,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-14,08; 8,61</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-17,85; 12,13</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-9,32; 14,18</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 24,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-14,99; 9,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-19,28; 15,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>34.83376057875308</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>11.94193243763312</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.10547451739038</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>25.3077000902643</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.5981696163941995</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1423311713554559</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.2189853049155288</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4088855039910083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1027,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>16,2%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>9,03%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>20.63066862603051</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>21.12194117796921</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>17.28257570783305</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>25.7500387395483</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.2729449477402983</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.299645659715684</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.2295808699311443</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.3852205822307334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>5,75; 20,55</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 14,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,3; 12,12</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 17,63</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>7,18; 30,01</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 19,19</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 16,14</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 26,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>8.458819188554635</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>7.055049614705629</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>4.52458399142002</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>11.19641761293656</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.1019548797744775</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>0.09430735570311378</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>0.05427530222270127</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>0.1474823226713633</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>37.45191725355139</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>41.22934478758737</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>34.29935896067961</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>41.70099700072193</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.6433946494031406</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.8504665204734084</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.5753804695100277</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.7823435055669418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.1286032803280768</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>5.681091613412459</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-2.063454462581638</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-1.994770281919689</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.001377853668706924</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.06487566665527585</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.02213422065080347</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.02268546086425071</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-10.42083951007084</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-6.477899308155978</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-12.28274131714761</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-16.27248699859929</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.1070620567941975</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.06520710249959853</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.1292466858325326</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.1797965677711522</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>10.08409013431276</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>18.57313046717815</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>8.919558234661604</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>14.3871406457817</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.1146629335032191</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.2512133969090253</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.1003607898599397</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>0.1838783813694071</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>12.22464727575412</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.508960632361461</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6.742920172517108</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>11.0463768375344</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.161446074182416</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.09169870363416224</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.08524601050522077</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>0.1552327373153413</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>5.520521380199366</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.949731506040565</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1146309676951067</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>3.79694088265774</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.06888732438735901</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.02258068943122372</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.001673135299458749</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.0509606208948172</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>20.00581906657572</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>14.21893355060738</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>12.6828846698435</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>18.07908396590722</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.2919517825140047</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>0.1840164412405275</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.1694133908017578</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.269543114860321</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1325,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
